--- a/SVD_Files/ADC.xlsx
+++ b/SVD_Files/ADC.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="175">
   <si>
     <t>Addr Shift</t>
   </si>
@@ -499,13 +500,79 @@
   </si>
   <si>
     <t>EOCIF_IE</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>RunChannel</t>
+  </si>
+  <si>
+    <t>RunSelected</t>
+  </si>
+  <si>
+    <t>RunTS_Temp</t>
+  </si>
+  <si>
+    <t>RunTS_Vref</t>
+  </si>
+  <si>
+    <t>RunTS_VrefB</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ADC1 Only</t>
+  </si>
+  <si>
+    <t>InitADC1</t>
+  </si>
+  <si>
+    <t>InitADC2</t>
+  </si>
+  <si>
+    <t>Cyclic</t>
+  </si>
+  <si>
+    <t>LimCfg set</t>
+  </si>
+  <si>
+    <t>InitSyncMode</t>
+  </si>
+  <si>
+    <t>FinitSyncMode</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>х</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Входной параметр в функцию</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,9 +589,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -569,12 +658,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,22 +676,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +1078,7 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1018,7 +1136,7 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1076,7 +1194,7 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1134,7 +1252,7 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1192,7 +1310,7 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1250,7 +1368,7 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1308,17 +1426,17 @@
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -1620,33 +1738,33 @@
       <c r="B35" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="39" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -3205,4 +3323,728 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>16</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="N12" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>17</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>18</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1</v>
+      </c>
+      <c r="L14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>19</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>20</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <v>1</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>